--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.5002081284317</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H2">
-        <v>12.5002081284317</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I2">
-        <v>0.5858595969834001</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J2">
-        <v>0.5858595969834001</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.742001468655</v>
+        <v>83.76902266666667</v>
       </c>
       <c r="N2">
-        <v>83.742001468655</v>
+        <v>251.307068</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9980041114547904</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9980041114547905</v>
       </c>
       <c r="Q2">
-        <v>1046.792447449621</v>
+        <v>1072.683556732409</v>
       </c>
       <c r="R2">
-        <v>1046.792447449621</v>
+        <v>9654.152010591682</v>
       </c>
       <c r="S2">
-        <v>0.5858595969834001</v>
+        <v>0.5771922283905685</v>
       </c>
       <c r="T2">
-        <v>0.5858595969834001</v>
+        <v>0.5771922283905685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02405139006696</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H3">
-        <v>1.02405139006696</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I3">
-        <v>0.04799522764027696</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J3">
-        <v>0.04799522764027696</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>83.742001468655</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="N3">
-        <v>83.742001468655</v>
+        <v>0.095585</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0003795922802832038</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.0003795922802832038</v>
       </c>
       <c r="Q3">
-        <v>85.75611301096558</v>
+        <v>0.407996713288889</v>
       </c>
       <c r="R3">
-        <v>85.75611301096558</v>
+        <v>3.6719704196</v>
       </c>
       <c r="S3">
-        <v>0.04799522764027696</v>
+        <v>0.0002195358832912431</v>
       </c>
       <c r="T3">
-        <v>0.04799522764027696</v>
+        <v>0.0002195358832912431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.04740270556378</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H4">
-        <v>4.04740270556378</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I4">
-        <v>0.1896936189820558</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J4">
-        <v>0.1896936189820558</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>83.742001468655</v>
+        <v>0.06078666666666666</v>
       </c>
       <c r="N4">
-        <v>83.742001468655</v>
+        <v>0.18236</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0007241978158962706</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0007241978158962707</v>
       </c>
       <c r="Q4">
-        <v>338.9376033135603</v>
+        <v>0.7783886659555556</v>
       </c>
       <c r="R4">
-        <v>338.9376033135603</v>
+        <v>7.005497993600001</v>
       </c>
       <c r="S4">
-        <v>0.1896936189820558</v>
+        <v>0.0004188373037295714</v>
       </c>
       <c r="T4">
-        <v>0.1896936189820558</v>
+        <v>0.0004188373037295714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.05104722626223</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H5">
-        <v>2.05104722626223</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I5">
-        <v>0.0961284555445773</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J5">
-        <v>0.0961284555445773</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>83.742001468655</v>
+        <v>0.07487966666666666</v>
       </c>
       <c r="N5">
-        <v>83.742001468655</v>
+        <v>0.224639</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.0008920984490300633</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.0008920984490300634</v>
       </c>
       <c r="Q5">
-        <v>171.7587998339324</v>
+        <v>0.9588531011822223</v>
       </c>
       <c r="R5">
-        <v>171.7587998339324</v>
+        <v>8.629677910640002</v>
       </c>
       <c r="S5">
-        <v>0.0961284555445773</v>
+        <v>0.0005159420545761527</v>
       </c>
       <c r="T5">
-        <v>0.0961284555445773</v>
+        <v>0.0005159420545761527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,982 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.71381587553064</v>
+        <v>1.142193666666667</v>
       </c>
       <c r="H6">
-        <v>1.71381587553064</v>
+        <v>3.426581</v>
       </c>
       <c r="I6">
-        <v>0.08032310084968997</v>
+        <v>0.05158693405585751</v>
       </c>
       <c r="J6">
-        <v>0.08032310084968997</v>
+        <v>0.0515869340558575</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.742001468655</v>
+        <v>83.76902266666667</v>
       </c>
       <c r="N6">
-        <v>83.742001468655</v>
+        <v>251.307068</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9980041114547904</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9980041114547905</v>
       </c>
       <c r="Q6">
-        <v>143.5183715656911</v>
+        <v>95.6804471527231</v>
       </c>
       <c r="R6">
-        <v>143.5183715656911</v>
+        <v>861.1240243745079</v>
       </c>
       <c r="S6">
-        <v>0.08032310084968997</v>
+        <v>0.05148397228509295</v>
       </c>
       <c r="T6">
-        <v>0.08032310084968997</v>
+        <v>0.05148397228509294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.142193666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.426581</v>
+      </c>
+      <c r="I7">
+        <v>0.05158693405585751</v>
+      </c>
+      <c r="J7">
+        <v>0.0515869340558575</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03186166666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.095585</v>
+      </c>
+      <c r="O7">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="P7">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="Q7">
+        <v>0.03639219387611111</v>
+      </c>
+      <c r="R7">
+        <v>0.327529744885</v>
+      </c>
+      <c r="S7">
+        <v>1.958200193108221E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.958200193108221E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.142193666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.426581</v>
+      </c>
+      <c r="I8">
+        <v>0.05158693405585751</v>
+      </c>
+      <c r="J8">
+        <v>0.0515869340558575</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06078666666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.18236</v>
+      </c>
+      <c r="O8">
+        <v>0.0007241978158962706</v>
+      </c>
+      <c r="P8">
+        <v>0.0007241978158962707</v>
+      </c>
+      <c r="Q8">
+        <v>0.06943014568444443</v>
+      </c>
+      <c r="R8">
+        <v>0.6248713111599999</v>
+      </c>
+      <c r="S8">
+        <v>3.735914497203695E-05</v>
+      </c>
+      <c r="T8">
+        <v>3.735914497203694E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.142193666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.426581</v>
+      </c>
+      <c r="I9">
+        <v>0.05158693405585751</v>
+      </c>
+      <c r="J9">
+        <v>0.0515869340558575</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.07487966666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.224639</v>
+      </c>
+      <c r="O9">
+        <v>0.0008920984490300633</v>
+      </c>
+      <c r="P9">
+        <v>0.0008920984490300634</v>
+      </c>
+      <c r="Q9">
+        <v>0.08552708102877776</v>
+      </c>
+      <c r="R9">
+        <v>0.7697437292589999</v>
+      </c>
+      <c r="S9">
+        <v>4.602062386144664E-05</v>
+      </c>
+      <c r="T9">
+        <v>4.602062386144663E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H10">
+        <v>12.14507</v>
+      </c>
+      <c r="I10">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J10">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>83.76902266666667</v>
+      </c>
+      <c r="N10">
+        <v>251.307068</v>
+      </c>
+      <c r="O10">
+        <v>0.9980041114547904</v>
+      </c>
+      <c r="P10">
+        <v>0.9980041114547905</v>
+      </c>
+      <c r="Q10">
+        <v>339.1268813727511</v>
+      </c>
+      <c r="R10">
+        <v>3052.14193235476</v>
+      </c>
+      <c r="S10">
+        <v>0.1824782333411975</v>
+      </c>
+      <c r="T10">
+        <v>0.1824782333411975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H11">
+        <v>12.14507</v>
+      </c>
+      <c r="I11">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J11">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03186166666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.095585</v>
+      </c>
+      <c r="O11">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="P11">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="Q11">
+        <v>0.1289873906611111</v>
+      </c>
+      <c r="R11">
+        <v>1.16088651595</v>
+      </c>
+      <c r="S11">
+        <v>6.940585504709467E-05</v>
+      </c>
+      <c r="T11">
+        <v>6.940585504709467E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H12">
+        <v>12.14507</v>
+      </c>
+      <c r="I12">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J12">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06078666666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.18236</v>
+      </c>
+      <c r="O12">
+        <v>0.0007241978158962706</v>
+      </c>
+      <c r="P12">
+        <v>0.0007241978158962707</v>
+      </c>
+      <c r="Q12">
+        <v>0.2460861072444444</v>
+      </c>
+      <c r="R12">
+        <v>2.2147749652</v>
+      </c>
+      <c r="S12">
+        <v>0.0001324146228632964</v>
+      </c>
+      <c r="T12">
+        <v>0.0001324146228632964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H13">
+        <v>12.14507</v>
+      </c>
+      <c r="I13">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J13">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.07487966666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.224639</v>
+      </c>
+      <c r="O13">
+        <v>0.0008920984490300633</v>
+      </c>
+      <c r="P13">
+        <v>0.0008920984490300634</v>
+      </c>
+      <c r="Q13">
+        <v>0.3031395977477778</v>
+      </c>
+      <c r="R13">
+        <v>2.72825637973</v>
+      </c>
+      <c r="S13">
+        <v>0.000163114106522198</v>
+      </c>
+      <c r="T13">
+        <v>0.000163114106522198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.235963</v>
+      </c>
+      <c r="H14">
+        <v>6.707889</v>
+      </c>
+      <c r="I14">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J14">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>83.76902266666667</v>
+      </c>
+      <c r="N14">
+        <v>251.307068</v>
+      </c>
+      <c r="O14">
+        <v>0.9980041114547904</v>
+      </c>
+      <c r="P14">
+        <v>0.9980041114547905</v>
+      </c>
+      <c r="Q14">
+        <v>187.304435228828</v>
+      </c>
+      <c r="R14">
+        <v>1685.739917059452</v>
+      </c>
+      <c r="S14">
+        <v>0.10078523501049</v>
+      </c>
+      <c r="T14">
+        <v>0.10078523501049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.235963</v>
+      </c>
+      <c r="H15">
+        <v>6.707889</v>
+      </c>
+      <c r="I15">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J15">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03186166666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.095585</v>
+      </c>
+      <c r="O15">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="P15">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="Q15">
+        <v>0.07124150778500001</v>
+      </c>
+      <c r="R15">
+        <v>0.641173570065</v>
+      </c>
+      <c r="S15">
+        <v>3.833380718316163E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.833380718316162E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.235963</v>
+      </c>
+      <c r="H16">
+        <v>6.707889</v>
+      </c>
+      <c r="I16">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J16">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06078666666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.18236</v>
+      </c>
+      <c r="O16">
+        <v>0.0007241978158962706</v>
+      </c>
+      <c r="P16">
+        <v>0.0007241978158962707</v>
+      </c>
+      <c r="Q16">
+        <v>0.13591673756</v>
+      </c>
+      <c r="R16">
+        <v>1.22325063804</v>
+      </c>
+      <c r="S16">
+        <v>7.313441521076897E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.313441521076899E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.235963</v>
+      </c>
+      <c r="H17">
+        <v>6.707889</v>
+      </c>
+      <c r="I17">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J17">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.07487966666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.224639</v>
+      </c>
+      <c r="O17">
+        <v>0.0008920984490300633</v>
+      </c>
+      <c r="P17">
+        <v>0.0008920984490300634</v>
+      </c>
+      <c r="Q17">
+        <v>0.167428164119</v>
+      </c>
+      <c r="R17">
+        <v>1.506853477071</v>
+      </c>
+      <c r="S17">
+        <v>9.009016175988119E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.009016175988119E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.909376</v>
+      </c>
+      <c r="H18">
+        <v>5.728128</v>
+      </c>
+      <c r="I18">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J18">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>83.76902266666667</v>
+      </c>
+      <c r="N18">
+        <v>251.307068</v>
+      </c>
+      <c r="O18">
+        <v>0.9980041114547904</v>
+      </c>
+      <c r="P18">
+        <v>0.9980041114547905</v>
+      </c>
+      <c r="Q18">
+        <v>159.9465614231893</v>
+      </c>
+      <c r="R18">
+        <v>1439.519052808704</v>
+      </c>
+      <c r="S18">
+        <v>0.08606444242744149</v>
+      </c>
+      <c r="T18">
+        <v>0.08606444242744149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.909376</v>
+      </c>
+      <c r="H19">
+        <v>5.728128</v>
+      </c>
+      <c r="I19">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J19">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03186166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.095585</v>
+      </c>
+      <c r="O19">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="P19">
+        <v>0.0003795922802832038</v>
+      </c>
+      <c r="Q19">
+        <v>0.06083590165333334</v>
+      </c>
+      <c r="R19">
+        <v>0.5475231148800001</v>
+      </c>
+      <c r="S19">
+        <v>3.273473283062216E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.273473283062216E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.909376</v>
+      </c>
+      <c r="H20">
+        <v>5.728128</v>
+      </c>
+      <c r="I20">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J20">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06078666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.18236</v>
+      </c>
+      <c r="O20">
+        <v>0.0007241978158962706</v>
+      </c>
+      <c r="P20">
+        <v>0.0007241978158962707</v>
+      </c>
+      <c r="Q20">
+        <v>0.1160646024533333</v>
+      </c>
+      <c r="R20">
+        <v>1.04458142208</v>
+      </c>
+      <c r="S20">
+        <v>6.245232912059691E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.245232912059691E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.909376</v>
+      </c>
+      <c r="H21">
+        <v>5.728128</v>
+      </c>
+      <c r="I21">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J21">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.07487966666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.224639</v>
+      </c>
+      <c r="O21">
+        <v>0.0008920984490300633</v>
+      </c>
+      <c r="P21">
+        <v>0.0008920984490300634</v>
+      </c>
+      <c r="Q21">
+        <v>0.1429734384213333</v>
+      </c>
+      <c r="R21">
+        <v>1.286760945792</v>
+      </c>
+      <c r="S21">
+        <v>7.693150231038479E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.693150231038479E-05</v>
       </c>
     </row>
   </sheetData>
